--- a/Running projects/BAF Head Office/H.V.A.C Maintenance 2024 revised on 22 Nov 24.xlsx
+++ b/Running projects/BAF Head Office/H.V.A.C Maintenance 2024 revised on 22 Nov 24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\BAF Head Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A865A274-5CA8-47CA-A0CD-0C4F25ED4F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA416855-92D7-4860-8D26-A1F9090B7C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet1!$A$1:$H$100</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet1!$A$1:$H$169</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Sheet2!$A$1:$H$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$A$1:$E$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$A$1:$E$36</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Sheet2!$1:$2</definedName>
   </definedNames>
@@ -1451,8 +1451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A11:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I28" sqref="I27:I28"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1804,7 +1804,7 @@
         <v>25</v>
       </c>
       <c r="E15" s="29">
-        <v>45583</v>
+        <v>45619</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
@@ -2070,8 +2070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K169"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="B161" sqref="B161"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A153" zoomScale="90" zoomScaleNormal="110" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="E36" sqref="A1:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2976,7 +2976,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="47">
         <v>8</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="47">
         <v>11</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="47">
         <v>19</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="47">
         <v>8</v>
       </c>
@@ -6227,16 +6227,18 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.4" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="87" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="9" manualBreakCount="9">
+  <rowBreaks count="11" manualBreakCount="11">
     <brk id="13" max="16383" man="1"/>
     <brk id="27" max="16383" man="1"/>
+    <brk id="39" max="7" man="1"/>
+    <brk id="51" max="7" man="1"/>
     <brk id="75" max="16383" man="1"/>
-    <brk id="42" max="7" man="1"/>
+    <brk id="86" max="7" man="1"/>
     <brk id="99" max="16383" man="1"/>
-    <brk id="90" max="7" man="1"/>
-    <brk id="100" max="16383" man="1"/>
+    <brk id="107" max="7" man="1"/>
+    <brk id="122" max="7" man="1"/>
     <brk id="135" max="16383" man="1"/>
-    <brk id="159" max="16383" man="1"/>
+    <brk id="145" max="7" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -6245,8 +6247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J132"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E36" sqref="A1:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Running projects/BAF Head Office/H.V.A.C Maintenance 2024 revised on 22 Nov 24.xlsx
+++ b/Running projects/BAF Head Office/H.V.A.C Maintenance 2024 revised on 22 Nov 24.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\BAF Head Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA416855-92D7-4860-8D26-A1F9090B7C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EF4FA6-581B-4113-BC90-856141FAC3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="AHUs" sheetId="1" r:id="rId2"/>
+    <sheet name="Plant Room" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet1!$A$1:$H$169</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Sheet2!$A$1:$H$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">AHUs!$A$1:$H$169</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Plant Room'!$A$1:$H$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$A$1:$E$36</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">Sheet2!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">AHUs!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'Plant Room'!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="118">
   <si>
     <t>S.NO</t>
   </si>
@@ -204,16 +204,7 @@
     <t>Dismantle of cooling tower structure frame and other metal accessories removed &amp; galvanized hot dipped and reinstalled accordingly.</t>
   </si>
   <si>
-    <t>Gate valve brass 2" need to be change make HATTERSLEY OR GALA.</t>
-  </si>
-  <si>
-    <t>Hydroplast showering pipe fittings joints leakage repairing with fiber coating 3 layer apply</t>
-  </si>
-  <si>
     <t>Hydroplast Butterfly valve 4" replaced with flange</t>
-  </si>
-  <si>
-    <t>Float ball valve stainless steel 1.5" need to be change.</t>
   </si>
   <si>
     <t xml:space="preserve">Cooling tower foundation steel beams/ girders outside area walk way platform and complete m/s pipe with pipe foundation  need to be bitumen paint with enimel paint required. NIPPON </t>
@@ -392,6 +383,36 @@
   <si>
     <t xml:space="preserve">Providing and installation of Strainer 12" dia for main Condenssor water with flange, nut bolt, gaskte etc complete in all respect
 Make GALA </t>
+  </si>
+  <si>
+    <t>Supply and installation of booster pump set 1 stand-by &amp; 1 on duty (make: Calpeda / Lowara) including VFD (make ABB) for cooling tower and chilled water system with 2Hp motor, electrical panel and related material.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Removal of existing 8" dia gate valve from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>secondary condenser water pump</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> including supply / installation of 8" dia Gate valve with related fittings
+Make GALA </t>
+    </r>
   </si>
   <si>
     <r>
@@ -417,7 +438,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> including supply / installation of 8" dia Gate valve with related fittings including new insulation and cladding
-make GALA </t>
+Make GALA </t>
     </r>
   </si>
   <si>
@@ -444,41 +465,17 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> including supply / installation of 6" dia Gate valve with related fittings including new insulation and cladding
-make GALA </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Removal of existing 8" dia gate valve from </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>secondary cooling water pump</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> including supply / installation of 8" dia Gate valve with related fittings
 Make GALA </t>
     </r>
   </si>
   <si>
-    <t>Supply and installation of booster pump set 1 stand-by &amp; 1 on duty (make: Calpeda / Lowara) including VFD (make ABB) for cooling tower and chilled water system with 2Hp motor, electrical panel and related material.</t>
-  </si>
-  <si>
-    <t>Shell cooler evaporator &amp; condenssor shell descaling required</t>
+    <t>1ST FLOOR A/B AHU UNIT</t>
+  </si>
+  <si>
+    <t>GROUND B FLOOR  AHU UNIT</t>
+  </si>
+  <si>
+    <t>5th FLOOR CANTEEN UNIT</t>
   </si>
 </sst>
 </file>
@@ -776,7 +773,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -957,6 +954,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1451,8 +1451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A11:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1804,7 +1804,7 @@
         <v>25</v>
       </c>
       <c r="E15" s="29">
-        <v>45619</v>
+        <v>45623</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
@@ -1865,11 +1865,11 @@
         <v>49</v>
       </c>
       <c r="C22" s="46">
-        <f>Sheet1!G27</f>
+        <f>AHUs!G27</f>
         <v>1553000</v>
       </c>
       <c r="D22" s="46">
-        <f>Sheet1!H27</f>
+        <f>AHUs!H27</f>
         <v>458000</v>
       </c>
       <c r="E22" s="46">
@@ -1882,14 +1882,14 @@
         <v>3</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="C23" s="46">
-        <f>Sheet1!G51</f>
+        <f>AHUs!G51</f>
         <v>1553000</v>
       </c>
       <c r="D23" s="46">
-        <f>Sheet1!H51</f>
+        <f>AHUs!H51</f>
         <v>458000</v>
       </c>
       <c r="E23" s="46">
@@ -1902,14 +1902,14 @@
         <v>2</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C24" s="46">
-        <f>Sheet1!G75</f>
+        <f>AHUs!G75</f>
         <v>1533000</v>
       </c>
       <c r="D24" s="46">
-        <f>Sheet1!H75</f>
+        <f>AHUs!H75</f>
         <v>458000</v>
       </c>
       <c r="E24" s="46">
@@ -1922,14 +1922,14 @@
         <v>4</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="C25" s="46">
-        <f>Sheet1!G99</f>
+        <f>AHUs!G99</f>
         <v>1533000</v>
       </c>
       <c r="D25" s="46">
-        <f>Sheet1!H99</f>
+        <f>AHUs!H99</f>
         <v>458000</v>
       </c>
       <c r="E25" s="46">
@@ -1942,14 +1942,14 @@
         <v>5</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="C26" s="46">
-        <f>Sheet1!G135</f>
+        <f>AHUs!G135</f>
         <v>2581800</v>
       </c>
       <c r="D26" s="46">
-        <f>Sheet1!H135</f>
+        <f>AHUs!H135</f>
         <v>655000</v>
       </c>
       <c r="E26" s="46">
@@ -1965,11 +1965,11 @@
         <v>50</v>
       </c>
       <c r="C27" s="46">
-        <f>Sheet1!G145</f>
+        <f>AHUs!G145</f>
         <v>417000</v>
       </c>
       <c r="D27" s="46">
-        <f>Sheet1!H145</f>
+        <f>AHUs!H145</f>
         <v>90000</v>
       </c>
       <c r="E27" s="46">
@@ -1985,11 +1985,11 @@
         <v>37</v>
       </c>
       <c r="C28" s="46">
-        <f>Sheet1!G159</f>
+        <f>AHUs!G159</f>
         <v>475000</v>
       </c>
       <c r="D28" s="46">
-        <f>Sheet1!H159</f>
+        <f>AHUs!H159</f>
         <v>175000</v>
       </c>
       <c r="E28" s="46">
@@ -2005,11 +2005,11 @@
         <v>8</v>
       </c>
       <c r="C29" s="46">
-        <f>Sheet1!G169</f>
+        <f>AHUs!G169</f>
         <v>155000</v>
       </c>
       <c r="D29" s="46">
-        <f>Sheet1!H169</f>
+        <f>AHUs!H169</f>
         <v>75000</v>
       </c>
       <c r="E29" s="46">
@@ -2022,19 +2022,19 @@
         <v>9</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C30" s="37">
-        <f>Sheet2!G15</f>
-        <v>9710000</v>
+        <f>'Plant Room'!G14</f>
+        <v>9440000</v>
       </c>
       <c r="D30" s="37">
-        <f>Sheet2!H15</f>
-        <v>650000</v>
+        <f>'Plant Room'!H14</f>
+        <v>470000</v>
       </c>
       <c r="E30" s="37">
         <f t="shared" si="0"/>
-        <v>10360000</v>
+        <v>9910000</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2044,15 +2044,15 @@
       </c>
       <c r="C31" s="38">
         <f>SUM(C22:C30)</f>
-        <v>19510800</v>
+        <v>19240800</v>
       </c>
       <c r="D31" s="38">
         <f>SUM(D22:D30)</f>
-        <v>3477000</v>
+        <v>3297000</v>
       </c>
       <c r="E31" s="38">
         <f>SUM(E22:E30)</f>
-        <v>22987800</v>
+        <v>22537800</v>
       </c>
     </row>
   </sheetData>
@@ -2070,8 +2070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K169"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A153" zoomScale="90" zoomScaleNormal="110" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="E36" sqref="A1:E36"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A129" zoomScale="90" zoomScaleNormal="110" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2175,7 +2175,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -2203,7 +2203,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -2231,7 +2231,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
@@ -2259,7 +2259,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
@@ -2287,7 +2287,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -2315,7 +2315,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C12" s="7">
         <v>1</v>
@@ -2343,7 +2343,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -2371,7 +2371,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
@@ -2399,7 +2399,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
@@ -2427,7 +2427,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C16" s="7">
         <v>1</v>
@@ -2455,7 +2455,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -2483,7 +2483,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C18" s="7">
         <v>1</v>
@@ -2511,7 +2511,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C19" s="7">
         <v>2</v>
@@ -2539,7 +2539,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
@@ -2567,13 +2567,13 @@
         <v>15</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E21" s="12">
         <v>23000</v>
@@ -2595,7 +2595,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C22" s="7">
         <v>1</v>
@@ -2622,8 +2622,8 @@
       <c r="A23" s="47">
         <v>17</v>
       </c>
-      <c r="B23" s="48" t="s">
-        <v>99</v>
+      <c r="B23" s="67" t="s">
+        <v>115</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
@@ -2651,7 +2651,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C24" s="7">
         <v>1</v>
@@ -2674,12 +2674,12 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="47">
         <v>19</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -2702,18 +2702,18 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="47">
         <v>20</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="C26" s="7">
         <v>2</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E26" s="12">
         <v>20000</v>
@@ -2785,7 +2785,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C31" s="7">
         <v>1</v>
@@ -2813,7 +2813,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="48" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C32" s="7">
         <v>1</v>
@@ -2841,7 +2841,7 @@
         <v>3</v>
       </c>
       <c r="B33" s="48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C33" s="7">
         <v>1</v>
@@ -2869,7 +2869,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C34" s="7">
         <v>1</v>
@@ -2897,7 +2897,7 @@
         <v>5</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
@@ -2925,7 +2925,7 @@
         <v>6</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C36" s="7">
         <v>1</v>
@@ -2953,7 +2953,7 @@
         <v>7</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
@@ -2981,7 +2981,7 @@
         <v>8</v>
       </c>
       <c r="B38" s="48" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C38" s="7">
         <v>1</v>
@@ -3009,7 +3009,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="48" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
@@ -3037,7 +3037,7 @@
         <v>10</v>
       </c>
       <c r="B40" s="48" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C40" s="7">
         <v>1</v>
@@ -3065,7 +3065,7 @@
         <v>11</v>
       </c>
       <c r="B41" s="48" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C41" s="7">
         <v>1</v>
@@ -3093,7 +3093,7 @@
         <v>12</v>
       </c>
       <c r="B42" s="48" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C42" s="7">
         <v>1</v>
@@ -3121,7 +3121,7 @@
         <v>13</v>
       </c>
       <c r="B43" s="48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C43" s="7">
         <v>2</v>
@@ -3149,7 +3149,7 @@
         <v>14</v>
       </c>
       <c r="B44" s="49" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C44" s="7">
         <v>1</v>
@@ -3177,13 +3177,13 @@
         <v>15</v>
       </c>
       <c r="B45" s="48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C45" s="7">
         <v>1</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E45" s="12">
         <v>23000</v>
@@ -3205,7 +3205,7 @@
         <v>16</v>
       </c>
       <c r="B46" s="48" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C46" s="7">
         <v>1</v>
@@ -3233,7 +3233,7 @@
         <v>17</v>
       </c>
       <c r="B47" s="48" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C47" s="7">
         <v>1</v>
@@ -3261,7 +3261,7 @@
         <v>18</v>
       </c>
       <c r="B48" s="48" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C48" s="7">
         <v>1</v>
@@ -3289,7 +3289,7 @@
         <v>19</v>
       </c>
       <c r="B49" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C49" s="7">
         <v>1</v>
@@ -3317,13 +3317,13 @@
         <v>20</v>
       </c>
       <c r="B50" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C50" s="7">
         <v>2</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E50" s="12">
         <v>20000</v>
@@ -3395,7 +3395,7 @@
         <v>1</v>
       </c>
       <c r="B55" s="48" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C55" s="7">
         <v>1</v>
@@ -3423,7 +3423,7 @@
         <v>2</v>
       </c>
       <c r="B56" s="48" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C56" s="7">
         <v>1</v>
@@ -3451,7 +3451,7 @@
         <v>3</v>
       </c>
       <c r="B57" s="48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C57" s="7">
         <v>1</v>
@@ -3479,7 +3479,7 @@
         <v>4</v>
       </c>
       <c r="B58" s="48" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C58" s="7">
         <v>1</v>
@@ -3507,7 +3507,7 @@
         <v>5</v>
       </c>
       <c r="B59" s="48" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C59" s="7">
         <v>1</v>
@@ -3535,7 +3535,7 @@
         <v>6</v>
       </c>
       <c r="B60" s="48" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C60" s="7">
         <v>1</v>
@@ -3563,7 +3563,7 @@
         <v>7</v>
       </c>
       <c r="B61" s="48" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C61" s="7">
         <v>1</v>
@@ -3591,7 +3591,7 @@
         <v>8</v>
       </c>
       <c r="B62" s="48" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C62" s="7">
         <v>1</v>
@@ -3619,7 +3619,7 @@
         <v>9</v>
       </c>
       <c r="B63" s="48" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C63" s="7">
         <v>1</v>
@@ -3647,7 +3647,7 @@
         <v>10</v>
       </c>
       <c r="B64" s="48" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C64" s="7">
         <v>1</v>
@@ -3675,7 +3675,7 @@
         <v>11</v>
       </c>
       <c r="B65" s="48" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C65" s="7">
         <v>1</v>
@@ -3703,7 +3703,7 @@
         <v>12</v>
       </c>
       <c r="B66" s="48" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C66" s="7">
         <v>1</v>
@@ -3731,7 +3731,7 @@
         <v>13</v>
       </c>
       <c r="B67" s="48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C67" s="7">
         <v>2</v>
@@ -3759,7 +3759,7 @@
         <v>14</v>
       </c>
       <c r="B68" s="49" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C68" s="7">
         <v>1</v>
@@ -3787,13 +3787,13 @@
         <v>15</v>
       </c>
       <c r="B69" s="48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C69" s="7">
         <v>1</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E69" s="12">
         <v>23000</v>
@@ -3815,7 +3815,7 @@
         <v>16</v>
       </c>
       <c r="B70" s="48" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C70" s="7">
         <v>1</v>
@@ -3843,7 +3843,7 @@
         <v>17</v>
       </c>
       <c r="B71" s="48" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C71" s="7">
         <v>1</v>
@@ -3871,7 +3871,7 @@
         <v>18</v>
       </c>
       <c r="B72" s="48" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C72" s="7">
         <v>1</v>
@@ -3899,7 +3899,7 @@
         <v>19</v>
       </c>
       <c r="B73" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C73" s="7">
         <v>1</v>
@@ -3927,13 +3927,13 @@
         <v>20</v>
       </c>
       <c r="B74" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C74" s="7">
         <v>2</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E74" s="12">
         <v>20000</v>
@@ -3995,7 +3995,7 @@
         <v>1</v>
       </c>
       <c r="B79" s="48" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C79" s="7">
         <v>1</v>
@@ -4023,7 +4023,7 @@
         <v>2</v>
       </c>
       <c r="B80" s="48" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C80" s="7">
         <v>1</v>
@@ -4051,7 +4051,7 @@
         <v>3</v>
       </c>
       <c r="B81" s="48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C81" s="7">
         <v>1</v>
@@ -4079,7 +4079,7 @@
         <v>4</v>
       </c>
       <c r="B82" s="48" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C82" s="7">
         <v>1</v>
@@ -4107,7 +4107,7 @@
         <v>5</v>
       </c>
       <c r="B83" s="48" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C83" s="7">
         <v>1</v>
@@ -4135,7 +4135,7 @@
         <v>6</v>
       </c>
       <c r="B84" s="48" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C84" s="7">
         <v>1</v>
@@ -4163,7 +4163,7 @@
         <v>7</v>
       </c>
       <c r="B85" s="48" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C85" s="7">
         <v>1</v>
@@ -4191,7 +4191,7 @@
         <v>8</v>
       </c>
       <c r="B86" s="48" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C86" s="7">
         <v>1</v>
@@ -4219,7 +4219,7 @@
         <v>9</v>
       </c>
       <c r="B87" s="48" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C87" s="7">
         <v>1</v>
@@ -4247,7 +4247,7 @@
         <v>10</v>
       </c>
       <c r="B88" s="48" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C88" s="7">
         <v>1</v>
@@ -4275,7 +4275,7 @@
         <v>11</v>
       </c>
       <c r="B89" s="48" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C89" s="7">
         <v>1</v>
@@ -4303,7 +4303,7 @@
         <v>12</v>
       </c>
       <c r="B90" s="48" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C90" s="7">
         <v>1</v>
@@ -4331,7 +4331,7 @@
         <v>13</v>
       </c>
       <c r="B91" s="48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C91" s="7">
         <v>2</v>
@@ -4359,7 +4359,7 @@
         <v>14</v>
       </c>
       <c r="B92" s="49" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C92" s="7">
         <v>1</v>
@@ -4387,13 +4387,13 @@
         <v>15</v>
       </c>
       <c r="B93" s="48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C93" s="7">
         <v>1</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E93" s="12">
         <v>23000</v>
@@ -4415,7 +4415,7 @@
         <v>16</v>
       </c>
       <c r="B94" s="48" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C94" s="7">
         <v>1</v>
@@ -4443,7 +4443,7 @@
         <v>17</v>
       </c>
       <c r="B95" s="48" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C95" s="7">
         <v>1</v>
@@ -4471,7 +4471,7 @@
         <v>18</v>
       </c>
       <c r="B96" s="48" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C96" s="7">
         <v>1</v>
@@ -4499,7 +4499,7 @@
         <v>19</v>
       </c>
       <c r="B97" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C97" s="7">
         <v>1</v>
@@ -4527,13 +4527,13 @@
         <v>20</v>
       </c>
       <c r="B98" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C98" s="7">
         <v>2</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E98" s="12">
         <v>20000</v>
@@ -4595,7 +4595,7 @@
         <v>1</v>
       </c>
       <c r="B104" s="48" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C104" s="7">
         <v>1</v>
@@ -4623,7 +4623,7 @@
         <v>2</v>
       </c>
       <c r="B105" s="48" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C105" s="7">
         <v>1</v>
@@ -4651,7 +4651,7 @@
         <v>3</v>
       </c>
       <c r="B106" s="48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C106" s="7">
         <v>1</v>
@@ -4679,7 +4679,7 @@
         <v>4</v>
       </c>
       <c r="B107" s="48" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C107" s="7">
         <v>1</v>
@@ -4707,7 +4707,7 @@
         <v>5</v>
       </c>
       <c r="B108" s="48" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C108" s="7">
         <v>1</v>
@@ -4735,7 +4735,7 @@
         <v>6</v>
       </c>
       <c r="B109" s="48" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C109" s="7">
         <v>1</v>
@@ -4763,7 +4763,7 @@
         <v>7</v>
       </c>
       <c r="B110" s="48" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C110" s="7">
         <v>1</v>
@@ -4791,7 +4791,7 @@
         <v>8</v>
       </c>
       <c r="B111" s="48" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C111" s="7">
         <v>1</v>
@@ -4819,7 +4819,7 @@
         <v>9</v>
       </c>
       <c r="B112" s="48" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C112" s="7">
         <v>1</v>
@@ -4847,7 +4847,7 @@
         <v>10</v>
       </c>
       <c r="B113" s="48" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C113" s="7">
         <v>1</v>
@@ -4875,7 +4875,7 @@
         <v>11</v>
       </c>
       <c r="B114" s="48" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C114" s="7">
         <v>1</v>
@@ -4903,7 +4903,7 @@
         <v>12</v>
       </c>
       <c r="B115" s="48" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C115" s="7">
         <v>1</v>
@@ -4931,7 +4931,7 @@
         <v>13</v>
       </c>
       <c r="B116" s="48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C116" s="7">
         <v>2</v>
@@ -4959,7 +4959,7 @@
         <v>14</v>
       </c>
       <c r="B117" s="49" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C117" s="7">
         <v>1</v>
@@ -4987,13 +4987,13 @@
         <v>15</v>
       </c>
       <c r="B118" s="48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C118" s="7">
         <v>1</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E118" s="12">
         <v>10000</v>
@@ -5015,7 +5015,7 @@
         <v>16</v>
       </c>
       <c r="B119" s="48" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C119" s="7">
         <v>1</v>
@@ -5043,7 +5043,7 @@
         <v>17</v>
       </c>
       <c r="B120" s="48" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C120" s="7">
         <v>1</v>
@@ -5071,7 +5071,7 @@
         <v>18</v>
       </c>
       <c r="B121" s="48" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C121" s="7">
         <v>1</v>
@@ -5099,7 +5099,7 @@
         <v>19</v>
       </c>
       <c r="B122" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C122" s="7">
         <v>1</v>
@@ -5127,13 +5127,13 @@
         <v>20</v>
       </c>
       <c r="B123" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C123" s="7">
         <v>2</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E123" s="12">
         <v>20000</v>
@@ -5155,7 +5155,7 @@
         <v>21</v>
       </c>
       <c r="B124" s="48" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C124" s="7">
         <v>1</v>
@@ -5183,7 +5183,7 @@
         <v>22</v>
       </c>
       <c r="B125" s="48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C125" s="7">
         <v>1</v>
@@ -5211,13 +5211,13 @@
         <v>23</v>
       </c>
       <c r="B126" s="48" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C126" s="7">
         <v>1200</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E126" s="12">
         <v>425</v>
@@ -5239,13 +5239,13 @@
         <v>24</v>
       </c>
       <c r="B127" s="48" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C127" s="7">
         <v>1200</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E127" s="12">
         <v>450</v>
@@ -5267,13 +5267,13 @@
         <v>25</v>
       </c>
       <c r="B128" s="48" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C128" s="7">
         <v>1</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E128" s="12">
         <v>180000</v>
@@ -5295,13 +5295,13 @@
         <v>26</v>
       </c>
       <c r="B129" s="48" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C129" s="7">
         <v>1600</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E129" s="12">
         <v>28</v>
@@ -5323,13 +5323,13 @@
         <v>27</v>
       </c>
       <c r="B130" s="48" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C130" s="7">
         <v>1600</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E130" s="12">
         <v>25</v>
@@ -5351,13 +5351,13 @@
         <v>28</v>
       </c>
       <c r="B131" s="48" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C131" s="7">
         <v>1</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E131" s="12">
         <v>265000</v>
@@ -5379,7 +5379,7 @@
         <v>29</v>
       </c>
       <c r="B132" s="48" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C132" s="7">
         <v>1</v>
@@ -5407,7 +5407,7 @@
         <v>30</v>
       </c>
       <c r="B133" s="48" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C133" s="7">
         <v>1</v>
@@ -5435,7 +5435,7 @@
         <v>31</v>
       </c>
       <c r="B134" s="48" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C134" s="7">
         <v>1</v>
@@ -5503,7 +5503,7 @@
         <v>1</v>
       </c>
       <c r="B139" s="51" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C139" s="7">
         <v>2</v>
@@ -5531,7 +5531,7 @@
         <v>2</v>
       </c>
       <c r="B140" s="51" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C140" s="7">
         <v>2</v>
@@ -5559,7 +5559,7 @@
         <v>3</v>
       </c>
       <c r="B141" s="51" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C141" s="7">
         <v>2</v>
@@ -5587,7 +5587,7 @@
         <v>4</v>
       </c>
       <c r="B142" s="51" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C142" s="7">
         <v>2</v>
@@ -5615,7 +5615,7 @@
         <v>5</v>
       </c>
       <c r="B143" s="51" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C143" s="7">
         <v>2</v>
@@ -5643,7 +5643,7 @@
         <v>6</v>
       </c>
       <c r="B144" s="51" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C144" s="7">
         <v>2</v>
@@ -5739,7 +5739,7 @@
         <v>2</v>
       </c>
       <c r="B150" s="51" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C150" s="7">
         <v>1</v>
@@ -5767,7 +5767,7 @@
         <v>3</v>
       </c>
       <c r="B151" s="51" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C151" s="7">
         <v>2</v>
@@ -5935,7 +5935,7 @@
         <v>9</v>
       </c>
       <c r="B157" s="48" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C157" s="7">
         <v>1</v>
@@ -6245,10 +6245,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J132"/>
+  <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E36" sqref="A1:H36"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A9" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6315,7 +6315,7 @@
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="22"/>
@@ -6334,65 +6334,65 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C6" s="21">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="12">
-        <v>30000</v>
+        <v>450000</v>
       </c>
       <c r="F6" s="12">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="G6" s="12">
-        <f t="shared" ref="G6" si="0">E6*C6</f>
-        <v>270000</v>
+        <f t="shared" ref="G6:G15" si="0">E6*C6</f>
+        <v>1800000</v>
       </c>
       <c r="H6" s="12">
-        <f t="shared" ref="H6" si="1">F6*C6</f>
-        <v>180000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H6:H15" si="1">F6*C6</f>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" s="48" t="s">
         <v>113</v>
       </c>
       <c r="C7" s="21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E7" s="12">
-        <v>450000</v>
+        <v>265000</v>
       </c>
       <c r="F7" s="12">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G7" s="12">
-        <f t="shared" ref="G7:G16" si="2">E7*C7</f>
-        <v>1800000</v>
+        <f t="shared" si="0"/>
+        <v>1590000</v>
       </c>
       <c r="H7" s="12">
-        <f t="shared" ref="H7:H16" si="3">F7*C7</f>
-        <v>40000</v>
+        <f t="shared" si="1"/>
+        <v>90000</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" s="48" t="s">
         <v>114</v>
@@ -6404,26 +6404,26 @@
         <v>14</v>
       </c>
       <c r="E8" s="12">
-        <v>265000</v>
+        <v>180000</v>
       </c>
       <c r="F8" s="12">
         <v>15000</v>
       </c>
       <c r="G8" s="12">
-        <f t="shared" si="2"/>
-        <v>1590000</v>
+        <f t="shared" si="0"/>
+        <v>1080000</v>
       </c>
       <c r="H8" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>90000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C9" s="21">
         <v>6</v>
@@ -6432,225 +6432,215 @@
         <v>14</v>
       </c>
       <c r="E9" s="12">
-        <v>180000</v>
+        <v>265000</v>
       </c>
       <c r="F9" s="12">
         <v>15000</v>
       </c>
       <c r="G9" s="12">
-        <f t="shared" si="2"/>
-        <v>1080000</v>
+        <f t="shared" ref="G9" si="2">E9*C9</f>
+        <v>1590000</v>
       </c>
       <c r="H9" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="H9" si="3">F9*C9</f>
         <v>90000</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" s="21">
+        <v>111</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1750000</v>
+      </c>
+      <c r="F10" s="12">
+        <v>30000</v>
+      </c>
+      <c r="G10" s="12">
+        <f t="shared" si="0"/>
+        <v>1750000</v>
+      </c>
+      <c r="H10" s="12">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>6</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="B11" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="12">
-        <v>265000</v>
-      </c>
-      <c r="F10" s="12">
-        <v>15000</v>
-      </c>
-      <c r="G10" s="12">
-        <f t="shared" ref="G10" si="4">E10*C10</f>
-        <v>1590000</v>
-      </c>
-      <c r="H10" s="12">
-        <f t="shared" ref="H10" si="5">F10*C10</f>
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>5</v>
-      </c>
-      <c r="B11" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="E11" s="12">
-        <v>1750000</v>
+        <v>40000</v>
       </c>
       <c r="F11" s="12">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="G11" s="12">
-        <f t="shared" si="2"/>
-        <v>1750000</v>
+        <f t="shared" si="0"/>
+        <v>40000</v>
       </c>
       <c r="H11" s="12">
-        <f t="shared" si="3"/>
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
+        <v>7</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="12">
+        <v>1350000</v>
+      </c>
+      <c r="F12" s="12">
+        <v>50000</v>
+      </c>
+      <c r="G12" s="12">
+        <f t="shared" si="0"/>
+        <v>1350000</v>
+      </c>
+      <c r="H12" s="12">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>8</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="7">
         <v>6</v>
       </c>
-      <c r="B12" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="12">
+      <c r="D13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="12">
         <v>40000</v>
       </c>
-      <c r="F12" s="12">
-        <v>20000</v>
-      </c>
-      <c r="G12" s="12">
-        <f t="shared" si="2"/>
-        <v>40000</v>
-      </c>
-      <c r="H12" s="12">
-        <f t="shared" si="3"/>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>7</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="12">
-        <v>1350000</v>
-      </c>
       <c r="F13" s="12">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="G13" s="12">
-        <f t="shared" si="2"/>
-        <v>1350000</v>
+        <f t="shared" ref="G13" si="4">E13*C13</f>
+        <v>240000</v>
       </c>
       <c r="H13" s="12">
-        <f t="shared" si="3"/>
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>8</v>
-      </c>
-      <c r="B14" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="7">
-        <v>6</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="12">
-        <v>40000</v>
-      </c>
-      <c r="F14" s="12">
-        <v>10000</v>
-      </c>
-      <c r="G14" s="12">
-        <f t="shared" ref="G14" si="6">E14*C14</f>
-        <v>240000</v>
-      </c>
-      <c r="H14" s="12">
-        <f t="shared" ref="H14" si="7">F14*C14</f>
+        <f t="shared" ref="H13" si="5">F13*C13</f>
         <v>60000</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="61" t="s">
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="52">
-        <f>SUM(G6:G14)</f>
-        <v>9710000</v>
-      </c>
-      <c r="H15" s="52">
-        <f>SUM(H6:H14)</f>
-        <v>650000</v>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="52">
+        <f>SUM(G6:G13)</f>
+        <v>9440000</v>
+      </c>
+      <c r="H14" s="52">
+        <f>SUM(H6:H13)</f>
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="7"/>
+      <c r="B16" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="54"/>
       <c r="D16" s="7"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
-      <c r="G16" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="54"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="7"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="7"/>
+    <row r="18" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>1</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="7">
+        <v>3</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C19" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>14</v>
@@ -6660,12 +6650,12 @@
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
     </row>
-    <row r="20" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" s="7">
         <v>6</v>
@@ -6678,15 +6668,15 @@
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="126" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C21" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>14</v>
@@ -6696,15 +6686,15 @@
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" ht="126" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>14</v>
@@ -6714,47 +6704,47 @@
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>5</v>
-      </c>
-      <c r="B23" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="7">
         <v>6</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B23" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="C24" s="7">
+        <v>12</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="C25" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>12</v>
@@ -6764,15 +6754,15 @@
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="C26" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>12</v>
@@ -6784,13 +6774,13 @@
     </row>
     <row r="27" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C27" s="7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>12</v>
@@ -6802,10 +6792,10 @@
     </row>
     <row r="28" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B28" s="48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C28" s="7">
         <v>3</v>
@@ -6818,48 +6808,48 @@
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B29" s="48" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C29" s="7">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B30" s="48" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C30" s="7">
-        <v>3000</v>
+        <v>1</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C31" s="7">
         <v>1</v>
@@ -6874,10 +6864,10 @@
     </row>
     <row r="32" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B32" s="48" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C32" s="7">
         <v>1</v>
@@ -6890,19 +6880,11 @@
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:10" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>15</v>
-      </c>
-      <c r="B33" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="7">
-        <v>1</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>14</v>
-      </c>
+    <row r="33" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
@@ -6918,70 +6900,84 @@
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
+    <row r="35" spans="1:10" ht="63" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>4</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="7">
+        <v>1</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-    </row>
-    <row r="36" spans="1:10" ht="63" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G35" s="12">
+        <f t="shared" ref="G35:G38" si="6">E35*C35</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="12">
+        <f t="shared" ref="H35:H38" si="7">F35*C35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>4</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>62</v>
+        <v>5</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C36" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
       <c r="G36" s="12">
-        <f t="shared" ref="G36:G39" si="8">E36*C36</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H36" s="12">
-        <f t="shared" ref="H36:H39" si="9">F36*C36</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>5</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C37" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H37" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
+        <v>8</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="C38" s="7">
         <v>1</v>
@@ -6992,57 +6988,34 @@
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H38" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>8</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="7">
-        <v>1</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12">
-        <f t="shared" si="8"/>
+    <row r="39" spans="1:10" s="1" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="62"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="24">
+        <f>SUM(G18:G38)</f>
         <v>0</v>
       </c>
-      <c r="H39" s="12">
-        <f t="shared" si="9"/>
+      <c r="H39" s="24">
+        <f>SUM(H18:H38)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" s="1" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" s="62"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="63"/>
-      <c r="G40" s="24">
-        <f>SUM(G19:G39)</f>
-        <v>0</v>
-      </c>
-      <c r="H40" s="24">
-        <f>SUM(H19:H39)</f>
-        <v>0</v>
-      </c>
-      <c r="J40" s="45"/>
-    </row>
+      <c r="J39" s="45"/>
+    </row>
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25"/>
@@ -7128,11 +7101,13 @@
     <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="56"/>
+    </row>
     <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="56"/>
     </row>
-    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="56"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
@@ -7143,21 +7118,18 @@
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="56"/>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A39:F39"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.5" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="10" max="7" man="1"/>
-    <brk id="15" max="16383" man="1"/>
+    <brk id="9" max="7" man="1"/>
+    <brk id="14" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Running projects/BAF Head Office/H.V.A.C Maintenance 2024 revised on 22 Nov 24.xlsx
+++ b/Running projects/BAF Head Office/H.V.A.C Maintenance 2024 revised on 22 Nov 24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\BAF Head Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EF4FA6-581B-4113-BC90-856141FAC3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1D8FC3-57BA-4349-9F3F-597A368ADFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
@@ -934,6 +934,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -954,9 +957,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1451,7 +1451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A11:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -1825,13 +1825,13 @@
       <c r="E18" s="31"/>
     </row>
     <row r="19" spans="1:5" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
     </row>
     <row r="20" spans="1:5" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
@@ -2070,8 +2070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K169"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A129" zoomScale="90" zoomScaleNormal="110" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="90" zoomScaleNormal="110" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2091,16 +2091,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="66"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="67"/>
     </row>
     <row r="2" spans="1:8" s="8" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
@@ -2622,8 +2622,8 @@
       <c r="A23" s="47">
         <v>17</v>
       </c>
-      <c r="B23" s="67" t="s">
-        <v>115</v>
+      <c r="B23" s="48" t="s">
+        <v>96</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
@@ -2731,14 +2731,14 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="61" t="s">
+      <c r="A27" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="63"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="64"/>
       <c r="G27" s="24">
         <f>SUM(G6:G26)</f>
         <v>1553000</v>
@@ -3341,14 +3341,14 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="61" t="s">
+      <c r="A51" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B51" s="62"/>
-      <c r="C51" s="62"/>
-      <c r="D51" s="62"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="63"/>
+      <c r="B51" s="63"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="64"/>
       <c r="G51" s="24">
         <f>SUM(G29:G50)</f>
         <v>1553000</v>
@@ -3951,14 +3951,14 @@
       </c>
     </row>
     <row r="75" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A75" s="61" t="s">
+      <c r="A75" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B75" s="62"/>
-      <c r="C75" s="62"/>
-      <c r="D75" s="62"/>
-      <c r="E75" s="62"/>
-      <c r="F75" s="63"/>
+      <c r="B75" s="63"/>
+      <c r="C75" s="63"/>
+      <c r="D75" s="63"/>
+      <c r="E75" s="63"/>
+      <c r="F75" s="64"/>
       <c r="G75" s="24">
         <f>SUM(G54:G74)</f>
         <v>1533000</v>
@@ -4551,14 +4551,14 @@
       </c>
     </row>
     <row r="99" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A99" s="61" t="s">
+      <c r="A99" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B99" s="62"/>
-      <c r="C99" s="62"/>
-      <c r="D99" s="62"/>
-      <c r="E99" s="62"/>
-      <c r="F99" s="63"/>
+      <c r="B99" s="63"/>
+      <c r="C99" s="63"/>
+      <c r="D99" s="63"/>
+      <c r="E99" s="63"/>
+      <c r="F99" s="64"/>
       <c r="G99" s="24">
         <f>SUM(G77:G98)</f>
         <v>1533000</v>
@@ -5457,14 +5457,14 @@
       </c>
     </row>
     <row r="135" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A135" s="61" t="s">
+      <c r="A135" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B135" s="62"/>
-      <c r="C135" s="62"/>
-      <c r="D135" s="62"/>
-      <c r="E135" s="62"/>
-      <c r="F135" s="63"/>
+      <c r="B135" s="63"/>
+      <c r="C135" s="63"/>
+      <c r="D135" s="63"/>
+      <c r="E135" s="63"/>
+      <c r="F135" s="64"/>
       <c r="G135" s="24">
         <f>SUM(G102:G134)</f>
         <v>2581800</v>
@@ -5667,14 +5667,14 @@
       </c>
     </row>
     <row r="145" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A145" s="61" t="s">
+      <c r="A145" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B145" s="62"/>
-      <c r="C145" s="62"/>
-      <c r="D145" s="62"/>
-      <c r="E145" s="62"/>
-      <c r="F145" s="63"/>
+      <c r="B145" s="63"/>
+      <c r="C145" s="63"/>
+      <c r="D145" s="63"/>
+      <c r="E145" s="63"/>
+      <c r="F145" s="64"/>
       <c r="G145" s="24">
         <f>SUM(G137:G144)</f>
         <v>417000</v>
@@ -5987,14 +5987,14 @@
       </c>
     </row>
     <row r="159" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A159" s="61" t="s">
+      <c r="A159" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B159" s="62"/>
-      <c r="C159" s="62"/>
-      <c r="D159" s="62"/>
-      <c r="E159" s="62"/>
-      <c r="F159" s="63"/>
+      <c r="B159" s="63"/>
+      <c r="C159" s="63"/>
+      <c r="D159" s="63"/>
+      <c r="E159" s="63"/>
+      <c r="F159" s="64"/>
       <c r="G159" s="24">
         <f>SUM(G149:G158)</f>
         <v>475000</v>
@@ -6195,14 +6195,14 @@
       </c>
     </row>
     <row r="169" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A169" s="61" t="s">
+      <c r="A169" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B169" s="62"/>
-      <c r="C169" s="62"/>
-      <c r="D169" s="62"/>
-      <c r="E169" s="62"/>
-      <c r="F169" s="63"/>
+      <c r="B169" s="63"/>
+      <c r="C169" s="63"/>
+      <c r="D169" s="63"/>
+      <c r="E169" s="63"/>
+      <c r="F169" s="64"/>
       <c r="G169" s="24">
         <f>SUM(G161:G168)</f>
         <v>155000</v>
@@ -6265,16 +6265,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="66"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="67"/>
     </row>
     <row r="2" spans="1:8" s="8" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
@@ -6559,14 +6559,14 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="63"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="64"/>
       <c r="G14" s="52">
         <f>SUM(G6:G13)</f>
         <v>9440000</v>
@@ -6708,7 +6708,7 @@
       <c r="A23" s="2">
         <v>6</v>
       </c>
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="60" t="s">
         <v>115</v>
       </c>
       <c r="C23" s="7"/>
@@ -6997,14 +6997,14 @@
       </c>
     </row>
     <row r="39" spans="1:10" s="1" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="61" t="s">
+      <c r="A39" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="62"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="63"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="64"/>
       <c r="G39" s="24">
         <f>SUM(G18:G38)</f>
         <v>0</v>
